--- a/グループ推奨品リスト.xlsx
+++ b/グループ推奨品リスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito\Desktop\PurchaseRequestApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED9786-ED06-42FA-8D18-8AEB4319F86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821DC300-5C66-4122-AC56-8FC04C5C6540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="滅菌バッグ" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="ニトリルグローブ" sheetId="4" r:id="rId4"/>
     <sheet name="袖なしエプロン" sheetId="5" r:id="rId5"/>
     <sheet name="袖付ガウン(ポリエチレン、不織布）" sheetId="6" r:id="rId6"/>
-    <sheet name="その他" sheetId="7" r:id="rId7"/>
+    <sheet name="セラバンド" sheetId="8" r:id="rId7"/>
+    <sheet name="ペーパー類その他" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="190">
   <si>
     <t>メーカー</t>
   </si>
@@ -459,9 +460,6 @@
   </si>
   <si>
     <t>FR-5643</t>
-  </si>
-  <si>
-    <t>本州　0.4389/m</t>
   </si>
   <si>
     <t>6ロール×12袋</t>
@@ -559,6 +557,295 @@
   </si>
   <si>
     <t>2箱=1ケース</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>セラバンド（46ｍ）白‐最弱</t>
+  </si>
+  <si>
+    <t>Ｔ11000</t>
+  </si>
+  <si>
+    <t>アビリティーズ・ケアネット</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Ｔ11100</t>
+  </si>
+  <si>
+    <t>Ｔ11200</t>
+  </si>
+  <si>
+    <t>Ｔ11300</t>
+  </si>
+  <si>
+    <t>Ｔ11400</t>
+  </si>
+  <si>
+    <t>Ｔ11500</t>
+  </si>
+  <si>
+    <t>Ｔ11600</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ｔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11700</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セラバンド（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｍ）金‐超強</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セラバンド（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｍ）銀‐最強</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セラバンド（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｍ）黒‐強</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セラバンド（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｍ）青‐中強</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セラバンド（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｍ）緑‐中</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セラバンド（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｍ）赤‐中弱</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セラバンド（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｍ）黄‐弱</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -566,7 +853,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -616,6 +903,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -643,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,6 +974,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -878,8 +1197,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -887,6 +1206,8 @@
     <col min="1" max="1" width="17.7265625" customWidth="1"/>
     <col min="2" max="2" width="51.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -914,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="5">
         <f>1568*1.1</f>
@@ -927,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -935,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="5">
         <f>2184*1.1</f>
@@ -948,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -956,10 +1277,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="5">
         <f>3136*1.1</f>
@@ -969,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -977,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="5">
         <f>4144*1.1</f>
@@ -990,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
@@ -998,10 +1319,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="5">
         <f>4676*1.1</f>
@@ -1011,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -1019,10 +1340,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="5">
         <f>5488*1.1</f>
@@ -1032,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -1040,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="5">
         <f>6048*1.1</f>
@@ -1053,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -1061,10 +1382,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="5">
         <f>7112*1.1</f>
@@ -1074,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
@@ -1082,10 +1403,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="5">
         <f>8904*1.1</f>
@@ -1095,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
@@ -1103,10 +1424,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="5">
         <f>10584*1.1</f>
@@ -1116,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
@@ -1124,10 +1445,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="5">
         <f>12264*1.1</f>
@@ -1137,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1155,13 +1476,15 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1638,8 +1961,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.26953125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
@@ -2688,22 +3012,175 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD072FC6-F878-4317-96B7-055A53DED405}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" customWidth="1"/>
     <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -2837,13 +3314,13 @@
         <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
@@ -2851,19 +3328,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
@@ -2871,39 +3348,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/グループ推奨品リスト.xlsx
+++ b/グループ推奨品リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito\Desktop\PurchaseRequestApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821DC300-5C66-4122-AC56-8FC04C5C6540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D157BD-C850-4C43-9F58-86F66E6B2807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="滅菌バッグ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="188">
   <si>
     <t>メーカー</t>
   </si>
@@ -465,16 +465,10 @@
     <t>6ロール×12袋</t>
   </si>
   <si>
-    <t>九州　0.4587/m</t>
-  </si>
-  <si>
     <t>メッドリーフ　ホワイト</t>
   </si>
   <si>
     <t>FR-233</t>
-  </si>
-  <si>
-    <t>2.75円/枚</t>
   </si>
   <si>
     <t>1箱500枚×４=ケース</t>
@@ -1197,8 +1191,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1235,20 +1229,17 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="5">
-        <f>1568*1.1</f>
-        <v>1724.8000000000002</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -1256,20 +1247,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="5">
-        <f>2184*1.1</f>
-        <v>2402.4</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -1277,20 +1265,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="5">
-        <f>3136*1.1</f>
-        <v>3449.6000000000004</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -1298,20 +1283,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="5">
-        <f>4144*1.1</f>
-        <v>4558.4000000000005</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
@@ -1319,20 +1301,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="5">
-        <f>4676*1.1</f>
-        <v>5143.6000000000004</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -1340,20 +1319,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="5">
-        <f>5488*1.1</f>
-        <v>6036.8</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -1361,20 +1337,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="5">
-        <f>6048*1.1</f>
-        <v>6652.8</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -1382,20 +1355,17 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="5">
-        <f>7112*1.1</f>
-        <v>7823.2000000000007</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
@@ -1403,20 +1373,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="5">
-        <f>8904*1.1</f>
-        <v>9794.4000000000015</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
@@ -1424,20 +1391,17 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="5">
-        <f>10584*1.1</f>
-        <v>11642.400000000001</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
@@ -1445,20 +1409,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="5">
-        <f>12264*1.1</f>
-        <v>13490.400000000001</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1437,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1539,9 +1500,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B2,""[\d]+""))"),"FR-169")</f>
         <v>FR-169</v>
       </c>
-      <c r="D2" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1560,9 +1519,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B3,""[\d]+""))"),"FR-172")</f>
         <v>FR-172</v>
       </c>
-      <c r="D3" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1581,9 +1538,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B4,""[\d]+""))"),"FR-168")</f>
         <v>FR-168</v>
       </c>
-      <c r="D4" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1602,9 +1557,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B5,""[\d]+""))"),"FR-235")</f>
         <v>FR-235</v>
       </c>
-      <c r="D5" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1623,9 +1576,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B6,""[\d]+""))"),"FR-236")</f>
         <v>FR-236</v>
       </c>
-      <c r="D6" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1644,9 +1595,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B7,""[\d]+""))"),"FR-123")</f>
         <v>FR-123</v>
       </c>
-      <c r="D7" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1665,9 +1614,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B8,""[\d]+""))"),"FR-124")</f>
         <v>FR-124</v>
       </c>
-      <c r="D8" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1686,9 +1633,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B9,""[\d]+""))"),"FR-125")</f>
         <v>FR-125</v>
       </c>
-      <c r="D9" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1707,9 +1652,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B10,""[\d]+""))"),"FR-175")</f>
         <v>FR-175</v>
       </c>
-      <c r="D10" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1728,9 +1671,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B11,""[\d]+""))"),"FR-176")</f>
         <v>FR-176</v>
       </c>
-      <c r="D11" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1749,9 +1690,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B12,""[\d]+""))"),"FR-548")</f>
         <v>FR-548</v>
       </c>
-      <c r="D12" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1770,9 +1709,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B13,""[\d]+""))"),"FR-549")</f>
         <v>FR-549</v>
       </c>
-      <c r="D13" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1791,9 +1728,7 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""FR-"",REGEXEXTRACT(B14,""[\d]+""))"),"FR-177")</f>
         <v>FR-177</v>
       </c>
-      <c r="D14" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1811,9 +1746,7 @@
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1">
-        <v>3.476</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1831,9 +1764,7 @@
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1">
-        <v>3.476</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1851,9 +1782,7 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1">
-        <v>3.476</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1871,9 +1800,7 @@
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1">
-        <v>3.476</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1891,9 +1818,7 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1">
-        <v>3.476</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1911,9 +1836,7 @@
       <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="1">
-        <v>3.52</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1931,9 +1854,7 @@
       <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1">
-        <v>60.5</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1957,7 +1878,9 @@
   </sheetPr>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2018,9 +1941,7 @@
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1">
-        <v>2.1724999999999999</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
@@ -2038,9 +1959,7 @@
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1">
-        <v>2.1724999999999999</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,9 +1977,7 @@
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1">
-        <v>2.1724999999999999</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2078,9 +1995,7 @@
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1">
-        <v>2.1724999999999999</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2098,9 +2013,7 @@
       <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="1">
-        <v>2.4750000000000001</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2118,9 +2031,7 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1">
-        <v>2.4750000000000001</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2138,9 +2049,7 @@
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="1">
-        <v>2.4750000000000001</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2158,9 +2067,7 @@
       <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1">
-        <v>2.6949999999999998</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2178,9 +2085,7 @@
       <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1">
-        <v>2.6949999999999998</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2198,9 +2103,7 @@
       <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1">
-        <v>2.6949999999999998</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2224,7 +2127,9 @@
   </sheetPr>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2284,9 +2189,7 @@
       <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
@@ -2304,9 +2207,7 @@
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>63</v>
       </c>
@@ -2324,9 +2225,7 @@
       <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
@@ -2344,9 +2243,7 @@
       <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>63</v>
       </c>
@@ -2364,9 +2261,7 @@
       <c r="C6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,9 +2279,7 @@
       <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>63</v>
       </c>
@@ -2404,9 +2297,7 @@
       <c r="C8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>63</v>
       </c>
@@ -2424,9 +2315,7 @@
       <c r="C9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,9 +2333,7 @@
       <c r="C10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="1">
-        <v>3.19</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2464,9 +2351,7 @@
       <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="1">
-        <v>3.19</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2484,9 +2369,7 @@
       <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="1">
-        <v>3.19</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
@@ -2504,9 +2387,7 @@
       <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="1">
-        <v>3.19</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
@@ -2524,9 +2405,7 @@
       <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="1">
-        <v>3.19</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
@@ -2544,9 +2423,7 @@
       <c r="C15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="1">
-        <v>3.19</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2564,9 +2441,7 @@
       <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="1">
-        <v>3.19</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2584,9 +2459,7 @@
       <c r="C17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="1">
-        <v>3.19</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2604,9 +2477,7 @@
       <c r="C18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>63</v>
       </c>
@@ -2624,9 +2495,7 @@
       <c r="C19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>63</v>
       </c>
@@ -2644,9 +2513,7 @@
       <c r="C20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
@@ -2664,9 +2531,7 @@
       <c r="C21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="1">
-        <v>2.97</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
@@ -2690,7 +2555,9 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2748,9 +2615,7 @@
       <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="1">
-        <v>5.83</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2768,9 +2633,7 @@
       <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="1">
-        <v>5.83</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2788,9 +2651,7 @@
       <c r="C4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="1">
-        <v>5.83</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2808,9 +2669,7 @@
       <c r="C5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="1">
-        <v>5.83</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2828,9 +2687,7 @@
       <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="1">
-        <v>4.29</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2848,9 +2705,7 @@
       <c r="C7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="1">
-        <v>4.29</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2868,9 +2723,7 @@
       <c r="C8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="1">
-        <v>4.29</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2894,7 +2747,9 @@
   </sheetPr>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2953,9 +2808,7 @@
       <c r="C2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="1">
-        <v>36.299999999999997</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2973,9 +2826,7 @@
       <c r="C3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="1">
-        <v>41.8</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2993,9 +2844,7 @@
       <c r="C4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="1">
-        <v>96.8</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3047,114 +2896,114 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" t="s">
-        <v>176</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3171,8 +3020,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3233,9 +3082,7 @@
       <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="1">
-        <v>63.25</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3253,9 +3100,7 @@
       <c r="C3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="1">
-        <v>3.52</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3273,9 +3118,7 @@
       <c r="C4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.39600000000000002</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3293,9 +3136,7 @@
       <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.3135</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3313,9 +3154,7 @@
       <c r="C6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3328,19 +3167,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
@@ -3348,19 +3185,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
